--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -51,15 +51,6 @@
     <x:t>Ahmed Mohamed Hassan Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باكينام حاتم حافظ شعبان السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pakiname hatem hafez chaaban</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210004</x:t>
   </x:si>
   <x:si>
@@ -172,6 +163,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Awwad Abdel Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم خالد ابراهيم الدسوقى حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Khaled Ibrahim Eldessoki</x:t>
   </x:si>
   <x:si>
     <x:t>4220143</x:t>
@@ -684,7 +684,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.420625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.580625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -829,7 +829,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4321978356</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -861,7 +861,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -893,7 +893,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -925,7 +925,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -957,7 +957,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45907.4164266204</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -985,11 +985,9 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45907.4164266204</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1012,14 +1010,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1051,7 +1051,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1083,7 +1083,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1115,7 +1115,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1147,7 +1147,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1179,7 +1179,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4152072917</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1211,7 +1211,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4152072917</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1243,7 +1243,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45919.6678930556</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -232,15 +232,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Osama</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1170221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف حازم عبد الرؤوف دخيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hazem Abdelrouf Dekhel</x:t>
   </x:si>
   <x:si>
     <x:t>1210342</x:t>
@@ -374,7 +365,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -674,7 +665,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1497,7 +1488,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4182630787</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1529,7 +1520,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.4142618056</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1546,38 +1537,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.4142618056</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,21 +87,21 @@
     <x:t>Abd el Rahman Tarek Emam</x:t>
   </x:si>
   <x:si>
-    <x:t>1220252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الله ناصر فاضل محمود محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdalluh Nasser fadel</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220126</x:t>
   </x:si>
   <x:si>
     <x:t>عبدالرحمن عبدالقادر محمد جمعه</x:t>
   </x:si>
   <x:si>
+    <x:t>1200189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمود سيد محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210152</x:t>
   </x:si>
   <x:si>
@@ -165,15 +165,6 @@
     <x:t>Mohamed Awwad Abdel Hamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم خالد ابراهيم الدسوقى حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Khaled Ibrahim Eldessoki</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220143</x:t>
   </x:si>
   <x:si>
@@ -214,15 +205,6 @@
   </x:si>
   <x:si>
     <x:t>mayar tarek said saad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى عزب محمد محمد العزب الباجوري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yahia azab mohamed mohamed alazab albagoury</x:t>
   </x:si>
   <x:si>
     <x:t>1210091</x:t>
@@ -365,7 +347,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +647,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -673,7 +655,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.420625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.580625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.580625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -944,11 +926,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.4164266204</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -971,14 +951,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45927.5201726505</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1230,11 +1212,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45919.6678930556</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1257,14 +1237,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1296,7 +1278,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1328,7 +1310,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1360,7 +1342,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1392,7 +1374,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1424,7 +1406,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1456,7 +1438,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.4142618056</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1473,70 +1455,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.6644524306</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.4142618056</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -163,6 +163,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Awwad Abdel Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حمدي عوض السيد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud hamdy awad elsayed</x:t>
   </x:si>
   <x:si>
     <x:t>4220143</x:t>
@@ -347,7 +356,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -647,7 +656,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1212,9 +1221,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45927.8855952894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1237,16 +1248,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1455,6 +1464,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,12 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Hassan Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسماعيل محمد محمد اشرف شهدى احمد فريد</x:t>
   </x:si>
   <x:si>
     <x:t>1210004</x:t>
@@ -356,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -656,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -664,7 +670,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.580625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.920625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.580625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -807,11 +813,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45928.81628125</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -834,16 +838,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -866,16 +870,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -898,16 +902,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -930,14 +934,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -965,11 +971,9 @@
       <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45927.5201726505</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -992,16 +996,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45927.5201726505</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1024,16 +1028,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1056,16 +1060,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1088,16 +1092,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1120,16 +1124,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1152,16 +1156,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4152072917</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1184,16 +1188,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45906.4152072917</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1216,16 +1220,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.8855952894</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1248,14 +1252,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45927.8855952894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1283,11 +1289,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1310,16 +1314,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1342,16 +1346,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1374,16 +1378,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1406,16 +1410,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1438,16 +1442,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1470,16 +1474,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1496,6 +1500,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -66,6 +66,15 @@
     <x:t>Habiba Magdy Kamel Mahmoud Ammar</x:t>
   </x:si>
   <x:si>
+    <x:t>1210230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد مصطفي ابراهيم عبده الريس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEIAD MOSTAFA IBRAHIM ABDOU ELRAYES</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210144</x:t>
   </x:si>
   <x:si>
@@ -117,6 +126,15 @@
     <x:t>ALIELDIN MOHAMED AHMED KAMAL ALI</x:t>
   </x:si>
   <x:si>
+    <x:t>1210255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي عبد الحميد فتحي عبد الحميد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِ Aly Abdelhamid Fathy Abdelhamid Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210065</x:t>
   </x:si>
   <x:si>
@@ -178,6 +196,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud hamdy awad elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم خالد ابراهيم الدسوقى حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Khaled Ibrahim Eldessoki</x:t>
   </x:si>
   <x:si>
     <x:t>4220143</x:t>
@@ -362,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -879,7 +906,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45930.3521940972</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -911,7 +938,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -943,7 +970,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -971,9 +998,11 @@
       <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -996,16 +1025,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45927.5201726505</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1037,7 +1064,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45927.5201726505</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1069,7 +1096,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1101,7 +1128,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45930.3124735764</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1133,7 +1160,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1165,7 +1192,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1197,7 +1224,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4152072917</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1229,7 +1256,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1261,7 +1288,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.8855952894</x:v>
+        <x:v>45906.4152072917</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1289,9 +1316,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1314,16 +1343,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45927.8855952894</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1346,16 +1375,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45930.3510763542</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1378,16 +1407,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1419,7 +1446,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1451,7 +1478,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1483,7 +1510,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,7 +1542,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1532,6 +1559,102 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.6653604977</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -106,15 +106,6 @@
   </x:si>
   <x:si>
     <x:t>عبدالرحمن عبدالقادر محمد جمعه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمود سيد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1210152</x:t>
@@ -389,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1064,7 +1055,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.5201726505</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1096,7 +1087,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45930.3124735764</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45930.3124735764</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4152072917</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4152072917</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45927.8855952894</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.8855952894</x:v>
+        <x:v>45930.3510763542</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1380,11 +1371,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45930.3510763542</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1407,14 +1396,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.4142618056</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1623,38 +1614,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45906.4142618056</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -55,24 +55,6 @@
   </x:si>
   <x:si>
     <x:t>اسماعيل محمد محمد اشرف شهدى احمد فريد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه مجدى كامل محمود عمار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Magdy Kamel Mahmoud Ammar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد مصطفي ابراهيم عبده الريس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZEIAD MOSTAFA IBRAHIM ABDOU ELRAYES</x:t>
   </x:si>
   <x:si>
     <x:t>1210144</x:t>
@@ -380,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -865,7 +847,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -897,7 +879,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45930.3521940972</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -929,7 +911,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -957,11 +939,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -984,16 +964,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1016,14 +996,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45930.3124735764</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1055,7 +1037,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1087,7 +1069,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45930.3124735764</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1119,7 +1101,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45906.4153025116</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1151,7 +1133,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1183,7 +1165,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4153025116</x:v>
+        <x:v>45906.4152072917</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1215,7 +1197,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1247,7 +1229,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4152072917</x:v>
+        <x:v>45927.8855952894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1279,7 +1261,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45930.3510763542</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1307,11 +1289,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45927.8855952894</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1334,16 +1314,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45930.3510763542</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1366,14 +1346,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1405,7 +1387,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1437,7 +1419,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1469,7 +1451,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1501,7 +1483,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1533,7 +1515,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.4142618056</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1550,70 +1532,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6644524306</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.4142618056</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES423_Tutorial-35431.xlsx
+++ b/downloaded_files/EPES423_Tutorial-35431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa mahmoud farouk mohamed eldamy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى مرسى عبد المتجلى محمد مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Morsy Abdel Motagally</x:t>
   </x:si>
   <x:si>
     <x:t>1200914</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1355,7 +1364,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4154349537</x:v>
+        <x:v>45937.3481325579</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.4154349537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1532,6 +1541,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
